--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1145.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1145.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.63656235334147</v>
+        <v>1.160040855407715</v>
       </c>
       <c r="B1">
-        <v>2.593735289725219</v>
+        <v>2.408264875411987</v>
       </c>
       <c r="C1">
-        <v>2.890406137286564</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.570940410875611</v>
+        <v>2.382341384887695</v>
       </c>
       <c r="E1">
-        <v>1.332555239449558</v>
+        <v>1.227702856063843</v>
       </c>
     </row>
   </sheetData>
